--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H2">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>821.7310911400644</v>
+        <v>1878.489509917121</v>
       </c>
       <c r="R2">
-        <v>821.7310911400644</v>
+        <v>16906.40558925409</v>
       </c>
       <c r="S2">
-        <v>0.002277361944325657</v>
+        <v>0.004118963220422093</v>
       </c>
       <c r="T2">
-        <v>0.002277361944325657</v>
+        <v>0.004118963220422093</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H3">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>1630.318561518856</v>
+        <v>2885.930400664537</v>
       </c>
       <c r="R3">
-        <v>1630.318561518856</v>
+        <v>25973.37360598083</v>
       </c>
       <c r="S3">
-        <v>0.004518297395781435</v>
+        <v>0.006327978471149234</v>
       </c>
       <c r="T3">
-        <v>0.004518297395781435</v>
+        <v>0.006327978471149234</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H4">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>765.3677307714433</v>
+        <v>1442.079244105241</v>
       </c>
       <c r="R4">
-        <v>765.3677307714433</v>
+        <v>12978.71319694717</v>
       </c>
       <c r="S4">
-        <v>0.002121155402621454</v>
+        <v>0.00316204659969895</v>
       </c>
       <c r="T4">
-        <v>0.002121155402621454</v>
+        <v>0.003162046599698949</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H5">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>859.0608656637826</v>
+        <v>1513.615182951205</v>
       </c>
       <c r="R5">
-        <v>859.0608656637826</v>
+        <v>13622.53664656084</v>
       </c>
       <c r="S5">
-        <v>0.002380818426387965</v>
+        <v>0.00331890342508409</v>
       </c>
       <c r="T5">
-        <v>0.002380818426387965</v>
+        <v>0.00331890342508409</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H6">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>641.5037363761722</v>
+        <v>1152.991843476035</v>
       </c>
       <c r="R6">
-        <v>641.5037363761722</v>
+        <v>10376.92659128431</v>
       </c>
       <c r="S6">
-        <v>0.001777876256743455</v>
+        <v>0.002528164768369659</v>
       </c>
       <c r="T6">
-        <v>0.001777876256743455</v>
+        <v>0.002528164768369659</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H7">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I7">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J7">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>1212.396542566114</v>
+        <v>2295.325415308188</v>
       </c>
       <c r="R7">
-        <v>1212.396542566114</v>
+        <v>20657.92873777369</v>
       </c>
       <c r="S7">
-        <v>0.003360059972467859</v>
+        <v>0.005032959148636193</v>
       </c>
       <c r="T7">
-        <v>0.003360059972467859</v>
+        <v>0.005032959148636192</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H8">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>37827.30761994353</v>
+        <v>50272.318356967</v>
       </c>
       <c r="R8">
-        <v>37827.30761994353</v>
+        <v>452450.865212703</v>
       </c>
       <c r="S8">
-        <v>0.1048353552138818</v>
+        <v>0.1102320929792327</v>
       </c>
       <c r="T8">
-        <v>0.1048353552138818</v>
+        <v>0.1102320929792328</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H9">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>75049.56598333923</v>
+        <v>77233.54913206724</v>
       </c>
       <c r="R9">
-        <v>75049.56598333923</v>
+        <v>695101.9421886052</v>
       </c>
       <c r="S9">
-        <v>0.2079938648438964</v>
+        <v>0.1693499732514785</v>
       </c>
       <c r="T9">
-        <v>0.2079938648438964</v>
+        <v>0.1693499732514786</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H10">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>35232.69462045298</v>
+        <v>38593.06451960518</v>
       </c>
       <c r="R10">
-        <v>35232.69462045298</v>
+        <v>347337.5806764467</v>
       </c>
       <c r="S10">
-        <v>0.09764459296939317</v>
+        <v>0.08462299761612405</v>
       </c>
       <c r="T10">
-        <v>0.09764459296939317</v>
+        <v>0.08462299761612405</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H11">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>39545.73458408906</v>
+        <v>40507.5162493822</v>
       </c>
       <c r="R11">
-        <v>39545.73458408906</v>
+        <v>364567.6462444398</v>
       </c>
       <c r="S11">
-        <v>0.1095978379949806</v>
+        <v>0.08882081518209643</v>
       </c>
       <c r="T11">
-        <v>0.1095978379949806</v>
+        <v>0.08882081518209645</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H12">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J12">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>29530.77890916557</v>
+        <v>30856.47948109692</v>
       </c>
       <c r="R12">
-        <v>29530.77890916557</v>
+        <v>277708.3153298724</v>
       </c>
       <c r="S12">
-        <v>0.08184218998057262</v>
+        <v>0.06765899060035457</v>
       </c>
       <c r="T12">
-        <v>0.08184218998057262</v>
+        <v>0.06765899060035459</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H13">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J13">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>55811.07672264916</v>
+        <v>61427.72126329404</v>
       </c>
       <c r="R13">
-        <v>55811.07672264916</v>
+        <v>552849.4913696464</v>
       </c>
       <c r="S13">
-        <v>0.1546759317864682</v>
+        <v>0.13469254060887</v>
       </c>
       <c r="T13">
-        <v>0.1546759317864682</v>
+        <v>0.13469254060887</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H14">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>2544.8011521047</v>
+        <v>10821.89260128046</v>
       </c>
       <c r="R14">
-        <v>2544.8011521047</v>
+        <v>97397.03341152417</v>
       </c>
       <c r="S14">
-        <v>0.007052712696605872</v>
+        <v>0.0237291597130073</v>
       </c>
       <c r="T14">
-        <v>0.007052712696605872</v>
+        <v>0.0237291597130073</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H15">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>5048.89811080994</v>
+        <v>16625.71373749105</v>
       </c>
       <c r="R15">
-        <v>5048.89811080994</v>
+        <v>149631.4236374194</v>
       </c>
       <c r="S15">
-        <v>0.01399261697933782</v>
+        <v>0.03645519606921483</v>
       </c>
       <c r="T15">
-        <v>0.01399261697933782</v>
+        <v>0.03645519606921484</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H16">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>2370.25068669203</v>
+        <v>8307.752915229834</v>
       </c>
       <c r="R16">
-        <v>2370.25068669203</v>
+        <v>74769.77623706851</v>
       </c>
       <c r="S16">
-        <v>0.006568960053458786</v>
+        <v>0.01821640659771151</v>
       </c>
       <c r="T16">
-        <v>0.006568960053458786</v>
+        <v>0.01821640659771151</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H17">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I17">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J17">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>2660.406919295483</v>
+        <v>8719.86820426168</v>
       </c>
       <c r="R17">
-        <v>2660.406919295483</v>
+        <v>78478.81383835513</v>
       </c>
       <c r="S17">
-        <v>0.007373104826809434</v>
+        <v>0.01912005163226413</v>
       </c>
       <c r="T17">
-        <v>0.007373104826809434</v>
+        <v>0.01912005163226413</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H18">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I18">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J18">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>1986.658975194225</v>
+        <v>6642.333552770559</v>
       </c>
       <c r="R18">
-        <v>1986.658975194225</v>
+        <v>59781.00197493503</v>
       </c>
       <c r="S18">
-        <v>0.005505866329316192</v>
+        <v>0.01456464220704892</v>
       </c>
       <c r="T18">
-        <v>0.005505866329316192</v>
+        <v>0.01456464220704892</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H19">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I19">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J19">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>3754.644495743083</v>
+        <v>13223.26528751849</v>
       </c>
       <c r="R19">
-        <v>3754.644495743083</v>
+        <v>119009.3875876664</v>
       </c>
       <c r="S19">
-        <v>0.01040569668261417</v>
+        <v>0.02899464867151473</v>
       </c>
       <c r="T19">
-        <v>0.01040569668261417</v>
+        <v>0.02899464867151473</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H20">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>3064.727464345062</v>
+        <v>4012.881232024437</v>
       </c>
       <c r="R20">
-        <v>3064.727464345062</v>
+        <v>36115.93108821994</v>
       </c>
       <c r="S20">
-        <v>0.008493646853918848</v>
+        <v>0.008799043122343548</v>
       </c>
       <c r="T20">
-        <v>0.008493646853918848</v>
+        <v>0.00879904312234355</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H21">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>6080.434493705583</v>
+        <v>6165.004318957538</v>
       </c>
       <c r="R21">
-        <v>6080.434493705583</v>
+        <v>55485.03887061785</v>
       </c>
       <c r="S21">
-        <v>0.01685143749607723</v>
+        <v>0.01351800258104705</v>
       </c>
       <c r="T21">
-        <v>0.01685143749607723</v>
+        <v>0.01351800258104705</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H22">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I22">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J22">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>2854.514731290463</v>
+        <v>3080.609555289571</v>
       </c>
       <c r="R22">
-        <v>2854.514731290463</v>
+        <v>27725.48599760614</v>
       </c>
       <c r="S22">
-        <v>0.007911059090558155</v>
+        <v>0.006754851378051313</v>
       </c>
       <c r="T22">
-        <v>0.007911059090558155</v>
+        <v>0.006754851378051313</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H23">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I23">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J23">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>3203.95255446782</v>
+        <v>3233.426605847858</v>
       </c>
       <c r="R23">
-        <v>3203.95255446782</v>
+        <v>29100.83945263072</v>
       </c>
       <c r="S23">
-        <v>0.008879498047039682</v>
+        <v>0.007089933265589101</v>
       </c>
       <c r="T23">
-        <v>0.008879498047039682</v>
+        <v>0.007089933265589102</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H24">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I24">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J24">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>2392.551700367534</v>
+        <v>2463.05305669041</v>
       </c>
       <c r="R24">
-        <v>2392.551700367534</v>
+        <v>22167.4775102137</v>
       </c>
       <c r="S24">
-        <v>0.006630765527794696</v>
+        <v>0.005400735482895306</v>
       </c>
       <c r="T24">
-        <v>0.006630765527794696</v>
+        <v>0.005400735482895306</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H25">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I25">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J25">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N25">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q25">
-        <v>4521.75294538786</v>
+        <v>4903.337618789955</v>
       </c>
       <c r="R25">
-        <v>4521.75294538786</v>
+        <v>44130.03856910959</v>
       </c>
       <c r="S25">
-        <v>0.0125316763482587</v>
+        <v>0.01075154649652472</v>
       </c>
       <c r="T25">
-        <v>0.0125316763482587</v>
+        <v>0.01075154649652472</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H26">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N26">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q26">
-        <v>2840.449748916685</v>
+        <v>4381.708110327272</v>
       </c>
       <c r="R26">
-        <v>2840.449748916685</v>
+        <v>39435.37299294546</v>
       </c>
       <c r="S26">
-        <v>0.007872079117728826</v>
+        <v>0.009607769675466274</v>
       </c>
       <c r="T26">
-        <v>0.007872079117728826</v>
+        <v>0.009607769675466275</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H27">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I27">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J27">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N27">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q27">
-        <v>5635.466393629637</v>
+        <v>6731.634419928032</v>
       </c>
       <c r="R27">
-        <v>5635.466393629637</v>
+        <v>60584.70977935229</v>
       </c>
       <c r="S27">
-        <v>0.01561824402381135</v>
+        <v>0.01476045218385824</v>
       </c>
       <c r="T27">
-        <v>0.01561824402381135</v>
+        <v>0.01476045218385824</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H28">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I28">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J28">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N28">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q28">
-        <v>2645.620449486098</v>
+        <v>3363.750655125745</v>
       </c>
       <c r="R28">
-        <v>2645.620449486098</v>
+        <v>30273.7558961317</v>
       </c>
       <c r="S28">
-        <v>0.007332125309303171</v>
+        <v>0.007375694757936098</v>
       </c>
       <c r="T28">
-        <v>0.007332125309303171</v>
+        <v>0.007375694757936098</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H29">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I29">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J29">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N29">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q29">
-        <v>2969.48630335191</v>
+        <v>3530.613233684975</v>
       </c>
       <c r="R29">
-        <v>2969.48630335191</v>
+        <v>31775.51910316477</v>
       </c>
       <c r="S29">
-        <v>0.008229693599724371</v>
+        <v>0.007741574269278475</v>
       </c>
       <c r="T29">
-        <v>0.008229693599724371</v>
+        <v>0.007741574269278476</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H30">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I30">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J30">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N30">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O30">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P30">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q30">
-        <v>2217.464017809964</v>
+        <v>2689.43408255872</v>
       </c>
       <c r="R30">
-        <v>2217.464017809964</v>
+        <v>24204.90674302848</v>
       </c>
       <c r="S30">
-        <v>0.006145524030331613</v>
+        <v>0.005897121070587052</v>
       </c>
       <c r="T30">
-        <v>0.006145524030331613</v>
+        <v>0.005897121070587053</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H31">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I31">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J31">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N31">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q31">
-        <v>4190.8496490519</v>
+        <v>5354.007001369913</v>
       </c>
       <c r="R31">
-        <v>4190.8496490519</v>
+        <v>48186.06301232922</v>
       </c>
       <c r="S31">
-        <v>0.01161460434933761</v>
+        <v>0.01173972907705938</v>
       </c>
       <c r="T31">
-        <v>0.01161460434933761</v>
+        <v>0.01173972907705938</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H32">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I32">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J32">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N32">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q32">
-        <v>2898.100225958008</v>
+        <v>5340.142535524807</v>
       </c>
       <c r="R32">
-        <v>2898.100225958008</v>
+        <v>48061.28281972326</v>
       </c>
       <c r="S32">
-        <v>0.008031852800265259</v>
+        <v>0.01170932846817372</v>
       </c>
       <c r="T32">
-        <v>0.008031852800265259</v>
+        <v>0.01170932846817373</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H33">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I33">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J33">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N33">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q33">
-        <v>5749.845226089885</v>
+        <v>8204.080781815375</v>
       </c>
       <c r="R33">
-        <v>5749.845226089885</v>
+        <v>73836.72703633839</v>
       </c>
       <c r="S33">
-        <v>0.01593523580261818</v>
+        <v>0.0179890847509498</v>
       </c>
       <c r="T33">
-        <v>0.01593523580261818</v>
+        <v>0.01798908475094981</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H34">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I34">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J34">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N34">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q34">
-        <v>2699.316622439456</v>
+        <v>4099.521807488624</v>
       </c>
       <c r="R34">
-        <v>2699.316622439456</v>
+        <v>36895.69626739762</v>
       </c>
       <c r="S34">
-        <v>0.007480939954578731</v>
+        <v>0.00898901987858795</v>
       </c>
       <c r="T34">
-        <v>0.007480939954578731</v>
+        <v>0.008989019878587952</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H35">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I35">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J35">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N35">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q35">
-        <v>3029.755738507805</v>
+        <v>4302.88312935562</v>
       </c>
       <c r="R35">
-        <v>3029.755738507805</v>
+        <v>38725.94816420058</v>
       </c>
       <c r="S35">
-        <v>0.008396725515043056</v>
+        <v>0.009434930170236866</v>
       </c>
       <c r="T35">
-        <v>0.008396725515043056</v>
+        <v>0.009434930170236869</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H36">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I36">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J36">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N36">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O36">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P36">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q36">
-        <v>2262.47022096405</v>
+        <v>3277.708368321516</v>
       </c>
       <c r="R36">
-        <v>2262.47022096405</v>
+        <v>29499.37531489364</v>
       </c>
       <c r="S36">
-        <v>0.006270255119889757</v>
+        <v>0.007187029869004528</v>
       </c>
       <c r="T36">
-        <v>0.006270255119889757</v>
+        <v>0.007187029869004531</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H37">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I37">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J37">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N37">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q37">
-        <v>4275.908179507667</v>
+        <v>6525.11755772285</v>
       </c>
       <c r="R37">
-        <v>4275.908179507667</v>
+        <v>58726.05801950565</v>
       </c>
       <c r="S37">
-        <v>0.01185033725805776</v>
+        <v>0.01430762274013265</v>
       </c>
       <c r="T37">
-        <v>0.01185033725805776</v>
+        <v>0.01430762274013265</v>
       </c>
     </row>
   </sheetData>
